--- a/data/long_dif/P19_2-Edad-long_dif.xlsx
+++ b/data/long_dif/P19_2-Edad-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,17%</t>
+          <t>28,76%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26,76%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>17,62%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,97%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>33,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,32%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>32,9%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>30,84%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20,89%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25,28%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>18,68%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,0; 39,21</t>
+          <t>21,05; 37,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,94; 37,88</t>
+          <t>19,69; 38,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,25; 26,54</t>
+          <t>10,47; 26,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,9; 40,55</t>
+          <t>7,21; 25,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,85; 20,53</t>
+          <t>24,64; 42,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,37; 43,14</t>
+          <t>7,29; 21,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,03; 36,83</t>
+          <t>25,25; 41,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,92; 26,22</t>
+          <t>14,62; 31,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,51; 32,02</t>
+          <t>24,64; 37,53</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15,21; 27,64</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19,3; 31,78</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12,69; 25,75</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,35%</t>
+          <t>50,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>61,66%</t>
+          <t>59,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>52,81%</t>
+          <t>58,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>56,34%</t>
+          <t>53,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>52,08%</t>
+          <t>58,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50,33%</t>
+          <t>47,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>56,87%</t>
+          <t>51,86%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>49,14%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>55,66%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>53,17%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,75; 59,71</t>
+          <t>41,84; 58,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,48; 54,69</t>
+          <t>29,95; 51,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,09; 70,91</t>
+          <t>49,34; 70,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43,4; 61,4</t>
+          <t>45,35; 71,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,98; 65,33</t>
+          <t>43,87; 62,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,97; 60,42</t>
+          <t>48,98; 68,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>45,33; 58,14</t>
+          <t>41,94; 60,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,2; 57,27</t>
+          <t>37,65; 59,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,36; 63,73</t>
+          <t>45,22; 58,55</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>41,18; 55,85</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>48,69; 62,89</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>45,84; 62,3</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>31,08%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>26,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,21%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>28,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>17,3%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>29,97%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19,06%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>28,15%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,84; 28,56</t>
+          <t>13,86; 27,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,22; 39,07</t>
+          <t>21,4; 43,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,39; 30,48</t>
+          <t>14,91; 32,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 23,0</t>
+          <t>16,03; 41,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,45; 40,44</t>
+          <t>8,0; 20,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,65; 21,35</t>
+          <t>20,48; 38,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,91; 22,62</t>
+          <t>10,12; 22,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,7; 36,38</t>
+          <t>21,02; 39,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,66; 22,77</t>
+          <t>12,64; 22,67</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>22,98; 37,76</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13,66; 25,36</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>20,74; 36,26</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,74; 51,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,53; 39,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,82; 23,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,46; 37,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,37; 34,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,22; 26,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,8; 41,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,15; 33,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,15; 23,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>49,14%</t>
+          <t>37,32%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>42,19%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>62,36%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>50,35%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>50,96%</t>
+          <t>28,53%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>53,94%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>49,74%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>46,3%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>58,42%</t>
+          <t>33,06%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24,03%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17,96%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24,28%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,21; 59,75</t>
+          <t>26,62; 50,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,36; 52,11</t>
+          <t>14,06; 42,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>48,23; 71,19</t>
+          <t>10,24; 23,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41,43; 59,24</t>
+          <t>13,75; 56,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>41,95; 60,04</t>
+          <t>21,69; 37,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,05; 62,16</t>
+          <t>17,19; 33,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,85; 56,5</t>
+          <t>14,75; 26,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,94; 53,49</t>
+          <t>13,43; 28,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>50,8; 64,34</t>
+          <t>26,83; 42,3</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17,83; 35,59</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13,59; 22,64</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16,27; 42,79</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>49,66%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>34,94%</t>
+          <t>42,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>61,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>49,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>50,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>52,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>54,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>29,31%</t>
+          <t>58,5%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>50,21%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>46,73%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>58,07%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>53,6%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,12; 19,97</t>
+          <t>37,84; 61,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,35; 45,97</t>
+          <t>30,78; 52,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,69; 37,61</t>
+          <t>47,5; 70,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,23; 29,03</t>
+          <t>28,34; 63,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,95; 30,88</t>
+          <t>42,03; 58,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,26; 32,45</t>
+          <t>43,61; 61,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,47; 22,22</t>
+          <t>46,93; 61,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,92; 37,29</t>
+          <t>48,36; 67,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,26; 33,54</t>
+          <t>42,7; 57,65</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>39,25; 54,01</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>50,51; 64,32</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>40,32; 62,22</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>34,89%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>22,76%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>25,97%</t>
+          <t>25,73%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>22,8%</t>
+          <t>16,74%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>29,23%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23,97%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>22,11%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,21; 31,33</t>
+          <t>7,77; 20,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,54; 29,03</t>
+          <t>24,18; 47,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,71; 32,76</t>
+          <t>14,05; 42,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,34; 35,26</t>
+          <t>12,61; 32,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,49; 21,17</t>
+          <t>14,87; 28,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,42; 26,83</t>
+          <t>15,91; 30,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,18; 31,31</t>
+          <t>19,47; 32,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,22; 23,18</t>
+          <t>15,06; 33,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,8; 28,17</t>
+          <t>12,5; 22,04</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>23,03; 37,86</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18,82; 35,12</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>15,87; 29,46</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>50,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>54,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>47,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>51,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>53,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>54,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>51,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>54,14%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>50,42; 70,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>41,63; 59,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>46,27; 62,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>41,51; 55,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>44,5; 58,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>48,05; 60,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>47,76; 60,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>46,12; 56,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>49,25; 59,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>29,44%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>27,06%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>19,05%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>22,56%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>20,14%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,53; 24,19</t>
+          <t>17,87; 32,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,39; 36,0</t>
+          <t>16,6; 30,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,85; 28,22</t>
+          <t>16,68; 31,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,49; 30,17</t>
+          <t>12,75; 26,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>26,02; 39,17</t>
+          <t>23,42; 35,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,76; 29,51</t>
+          <t>11,27; 20,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>15,77; 24,81</t>
+          <t>17,41; 27,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>24,53; 34,76</t>
+          <t>16,18; 27,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,08; 26,88</t>
+          <t>22,45; 32,24</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>15,44; 23,28</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>18,76; 26,78</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>16,32; 24,88</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>56,45%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>50,76%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>55,27%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>50,41%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>48,81%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>51,89%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>53,52%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>56,65%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>52,64%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>51,35%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>54,38%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>53,66%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>17,39; 28,63</t>
+          <t>47,48; 65,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>12,85; 24,32</t>
+          <t>42,22; 60,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>13,33; 22,88</t>
+          <t>47,33; 63,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>18,36; 30,04</t>
+          <t>42,46; 60,32</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>13,91; 24,24</t>
+          <t>42,95; 55,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>19,8; 30,24</t>
+          <t>45,37; 58,97</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>19,71; 27,48</t>
+          <t>47,81; 59,63</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>14,37; 21,67</t>
+          <t>50,11; 63,42</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>17,67; 24,47</t>
+          <t>47,13; 57,97</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>45,39; 56,92</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>49,53; 59,41</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>48,44; 58,9</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>52,78%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>56,61%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>60,0%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>53,27%</t>
+          <t>31,06%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>53,97%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>51,75%</t>
+          <t>32,58%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>53,04%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>55,25%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>55,75%</t>
+          <t>20,29%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>29,6%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>23,05%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>26,19%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>46,62; 59,85</t>
+          <t>13,41; 25,39</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>48,49; 63,29</t>
+          <t>18,32; 35,55</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>51,97; 66,46</t>
+          <t>16,13; 27,71</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>46,84; 59,5</t>
+          <t>23,38; 38,09</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>47,88; 60,83</t>
+          <t>16,72; 27,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>45,86; 57,42</t>
+          <t>26,84; 39,78</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>48,25; 57,76</t>
+          <t>19,34; 29,47</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>50,2; 60,4</t>
+          <t>16,29; 29,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>51,21; 59,98</t>
+          <t>16,14; 24,42</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>24,88; 35,27</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>19,75; 27,32</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>21,64; 31,33</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>25,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>26,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,104 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>19,12; 31,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>19,67; 34,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>17,48; 32,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>18,16; 28,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>22,21; 33,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>18,84; 28,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>19,56; 27,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>22,67; 32,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>19,44; 27,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>24,86%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>24,63%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>23,39%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>17,95%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>21,45%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>18,71%</t>
         </is>
       </c>
     </row>
@@ -1973,47 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>18,27; 31,81</t>
+          <t>17,34; 28,87</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>13,12; 25,86</t>
+          <t>11,76; 23,63</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>18,57; 30,31</t>
+          <t>13,53; 24,11</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>19,43; 32,67</t>
+          <t>12,71; 36,52</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>12,54; 25,35</t>
+          <t>19,43; 30,38</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>14,52; 25,05</t>
+          <t>14,23; 24,47</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>20,73; 30,37</t>
+          <t>19,54; 29,79</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>14,59; 23,47</t>
+          <t>12,82; 23,67</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>18,13; 25,9</t>
+          <t>19,6; 27,47</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>14,52; 22,35</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>17,81; 25,12</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>14,74; 27,56</t>
         </is>
       </c>
     </row>
@@ -2021,52 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>54,51%</t>
+          <t>53,04%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>56,71%</t>
+          <t>56,89%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>52,29%</t>
+          <t>59,25%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>54,31%</t>
+          <t>54,58%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>52,39%</t>
+          <t>52,43%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>49,11%</t>
+          <t>53,98%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>54,41%</t>
+          <t>51,81%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>54,64%</t>
+          <t>57,51%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>50,69%</t>
+          <t>52,73%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>55,4%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>55,42%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>56,05%</t>
         </is>
       </c>
     </row>
@@ -2079,47 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>45,84; 63,56</t>
+          <t>46,21; 60,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>48,52; 65,28</t>
+          <t>48,87; 64,38</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>44,74; 58,47</t>
+          <t>51,44; 65,54</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>46,15; 61,86</t>
+          <t>42,71; 62,43</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>44,09; 60,59</t>
+          <t>46,02; 58,86</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>41,74; 56,1</t>
+          <t>47,43; 60,33</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>48,26; 59,78</t>
+          <t>45,82; 57,86</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>48,64; 60,15</t>
+          <t>51,82; 64,51</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>45,41; 55,27</t>
+          <t>48,13; 57,67</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>50,4; 60,5</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>51,04; 59,87</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>49,53; 61,44</t>
         </is>
       </c>
     </row>
@@ -2127,52 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>26,1%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>22,66%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>31,45%</t>
+          <t>27,18%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>23,56%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>23,88%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>26,65%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>23,12%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>25,24%</t>
         </is>
       </c>
     </row>
@@ -2185,104 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>13,84; 27,75</t>
+          <t>18,83; 30,28</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>18,31; 32,22</t>
+          <t>19,49; 35,18</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>18,19; 29,82</t>
+          <t>17,32; 31,15</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>14,19; 27,95</t>
+          <t>19,08; 32,57</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>22,05; 36,91</t>
+          <t>18,22; 29,19</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>25,17; 38,6</t>
+          <t>21,62; 32,91</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>16,05; 25,37</t>
+          <t>19,06; 28,95</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>21,56; 32,21</t>
+          <t>19,47; 30,64</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>23,42; 31,82</t>
+          <t>19,97; 28,2</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>22,23; 31,43</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>19,45; 27,47</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>20,96; 29,92</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2295,100 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>17,84; 32,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>11,75; 28,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>16,06; 31,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>18,8; 35,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>12,92; 29,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>12,39; 24,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>20,51; 31,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>14,62; 26,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>15,36; 24,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>53,22%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>52,1%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>58,37%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>47,27%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>53,45%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>56,39%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>49,88%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>52,86%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>57,26%</t>
+          <t>25,18%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>18,27%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>21,81%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>20,88%</t>
         </is>
       </c>
     </row>
@@ -2401,47 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>44,31; 64,94</t>
+          <t>18,86; 32,58</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>40,66; 65,11</t>
+          <t>12,4; 24,58</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>49,04; 67,53</t>
+          <t>18,54; 30,71</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>38,59; 56,0</t>
+          <t>13,53; 27,81</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>43,75; 63,74</t>
+          <t>19,05; 32,98</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>46,16; 65,14</t>
+          <t>12,5; 25,69</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>43,74; 56,66</t>
+          <t>14,96; 25,08</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>45,56; 61,33</t>
+          <t>14,57; 29,78</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>49,91; 63,05</t>
+          <t>20,82; 30,39</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>14,34; 23,07</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>17,98; 25,84</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>15,46; 25,95</t>
         </is>
       </c>
     </row>
@@ -2449,52 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>54,3%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>28,93%</t>
+          <t>56,78%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>52,45%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>59,25%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>25,81%</t>
+          <t>55,49%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>52,11%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>49,41%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>27,18%</t>
+          <t>51,97%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>54,91%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>54,54%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>50,91%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>55,56%</t>
         </is>
       </c>
     </row>
@@ -2507,104 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>14,49; 29,02</t>
+          <t>46,07; 62,42</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>20,36; 41,97</t>
+          <t>48,25; 64,72</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>13,38; 27,41</t>
+          <t>45,51; 59,38</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>19,71; 36,03</t>
+          <t>49,7; 68,89</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>19,32; 34,93</t>
+          <t>47,16; 62,5</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>17,96; 39,06</t>
+          <t>43,95; 60,14</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>18,86; 30,05</t>
+          <t>42,42; 56,05</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>21,08; 34,26</t>
+          <t>42,74; 61,14</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>17,96; 30,85</t>
+          <t>49,34; 60,17</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>48,78; 60,18</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>45,74; 55,78</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>49,38; 61,96</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>27,27%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>28,82%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>19,92%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>27,19%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>27,28%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>23,56%</t>
         </is>
       </c>
     </row>
@@ -2617,47 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>23,4; 30,51</t>
+          <t>14,48; 28,18</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>17,78; 24,59</t>
+          <t>19,1; 33,85</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>17,92; 23,45</t>
+          <t>18,14; 29,16</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>24,64; 30,36</t>
+          <t>14,07; 29,07</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>16,27; 21,55</t>
+          <t>13,59; 24,93</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>20,07; 25,17</t>
+          <t>22,4; 36,4</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>24,93; 29,64</t>
+          <t>25,01; 38,19</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>17,82; 22,36</t>
+          <t>18,45; 37,04</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>19,65; 23,49</t>
+          <t>15,73; 24,61</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>22,52; 32,31</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>23,05; 31,4</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>18,46; 30,79</t>
         </is>
       </c>
     </row>
@@ -2665,52 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>53,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>50,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>58,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>50,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>53,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>52,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>52,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>51,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>55,56%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2723,100 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>49,89; 58,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>46,49; 54,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>54,47; 61,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>47,5; 54,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>49,92; 56,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>50,16; 56,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>49,63; 54,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>49,16; 54,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>53,12; 57,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>21,65%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>24,85%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>20,68%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>19,55%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>13,98%</t>
         </is>
       </c>
     </row>
@@ -2829,63 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>17,01; 22,29</t>
+          <t>19,35; 34,83</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>24,66; 31,93</t>
+          <t>12,32; 28,23</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>18,65; 25,43</t>
+          <t>15,34; 30,74</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>19,36; 24,87</t>
+          <t>5,37; 19,53</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>25,32; 31,25</t>
+          <t>17,25; 30,29</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>21,71; 27,45</t>
+          <t>15,11; 32,32</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>18,81; 22,62</t>
+          <t>12,92; 24,5</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>25,6; 30,67</t>
+          <t>10,27; 24,95</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>21,08; 25,37</t>
+          <t>19,98; 30,18</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>15,86; 27,4</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>15,6; 25,07</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>9,46; 19,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>52,25%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>51,68%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>58,81%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>64,69%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>48,11%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>51,79%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>57,2%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>57,55%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>49,95%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>51,74%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>57,91%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>60,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>42,52; 61,88</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>41,68; 63,39</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>49,61; 67,17</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>52,72; 75,11</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>39,63; 56,72</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>42,16; 60,77</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>47,95; 64,72</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>46,18; 67,51</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>43,64; 56,18</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>44,68; 58,87</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>51,84; 63,5</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>53,1; 67,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>21,46%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>28,89%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>19,32%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>24,48%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>28,19%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>26,56%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>25,06%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>26,02%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>25,21%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>27,58%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>22,54%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>25,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>14,99; 29,18</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>20,18; 39,16</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>13,22; 25,98</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>15,23; 37,63</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>20,92; 37,65</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>19,54; 34,38</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>18,24; 33,96</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>17,35; 36,59</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>19,98; 31,22</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>21,91; 33,69</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>17,83; 28,78</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>19,09; 33,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>27,23%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>21,32%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>20,08%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>18,96%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>27,09%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>18,78%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>22,67%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>19,81%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>27,16%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>20,04%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>21,4%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>19,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>23,9; 30,92</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>18,23; 25,5</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>17,62; 23,09</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>15,3; 26,71</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>24,45; 29,99</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>16,23; 21,96</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>20,39; 25,02</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>17,14; 22,64</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>24,82; 29,5</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>18,06; 22,66</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>19,71; 23,24</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>17,04; 23,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>52,89%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>49,95%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>57,92%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>55,64%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>51,22%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>53,22%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>53,09%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>55,33%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>52,04%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>51,61%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>55,45%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>55,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>48,99; 56,97</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>45,66; 54,16</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>54,15; 61,45</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>50,67; 60,26</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>48,14; 54,25</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>49,74; 56,38</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>50,24; 56,02</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>51,52; 58,86</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>49,59; 54,61</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>49,04; 54,22</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>53,09; 57,82</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>52,25; 58,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>19,88%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>28,72%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>22,0%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>25,4%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>21,69%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>27,99%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>24,24%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>24,86%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>20,8%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>28,35%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>23,14%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>25,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>17,41; 22,74</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>25,23; 32,84</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>19,17; 26,2</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>21,47; 29,46</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>19,35; 24,7</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>24,95; 30,97</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>21,86; 26,82</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>22,04; 28,12</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>19,06; 23,24</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>26,07; 30,79</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>21,15; 25,56</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>22,61; 27,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
